--- a/데이터 수집 파이프라인/movie_data20220805.xlsx
+++ b/데이터 수집 파이프라인/movie_data20220805.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="168">
   <si>
     <t>rnum</t>
   </si>
@@ -100,12 +100,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -196,10 +196,10 @@
     <t>2022-06-15</t>
   </si>
   <si>
-    <t>2565550184</t>
-  </si>
-  <si>
-    <t>2094794151</t>
+    <t>2565528184</t>
+  </si>
+  <si>
+    <t>2064794151</t>
   </si>
   <si>
     <t>504483247</t>
@@ -226,72 +226,75 @@
     <t>12398000</t>
   </si>
   <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>531096656</t>
+  </si>
+  <si>
+    <t>71422791</t>
+  </si>
+  <si>
+    <t>148299938</t>
+  </si>
+  <si>
+    <t>948579</t>
+  </si>
+  <si>
+    <t>-5960802</t>
+  </si>
+  <si>
+    <t>34703455</t>
+  </si>
+  <si>
+    <t>22370761</t>
+  </si>
+  <si>
+    <t>-4086959</t>
+  </si>
+  <si>
+    <t>3966180</t>
+  </si>
+  <si>
+    <t>11939500</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
     <t>41.6</t>
   </si>
   <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>530997656</t>
-  </si>
-  <si>
-    <t>71360791</t>
-  </si>
-  <si>
-    <t>148299938</t>
-  </si>
-  <si>
-    <t>948579</t>
-  </si>
-  <si>
-    <t>-5960802</t>
-  </si>
-  <si>
-    <t>34703455</t>
-  </si>
-  <si>
-    <t>22370761</t>
-  </si>
-  <si>
-    <t>-4086959</t>
-  </si>
-  <si>
-    <t>3966180</t>
-  </si>
-  <si>
-    <t>11939500</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>-3.4</t>
   </si>
   <si>
@@ -310,13 +313,13 @@
     <t>2604</t>
   </si>
   <si>
-    <t>37567502644</t>
-  </si>
-  <si>
-    <t>7693510482</t>
-  </si>
-  <si>
-    <t>77905702474</t>
+    <t>37566516644</t>
+  </si>
+  <si>
+    <t>7633426482</t>
+  </si>
+  <si>
+    <t>77905566974</t>
   </si>
   <si>
     <t>17793920900</t>
@@ -325,10 +328,10 @@
     <t>2909201168</t>
   </si>
   <si>
-    <t>18014179742</t>
-  </si>
-  <si>
-    <t>15283607796</t>
+    <t>18014151742</t>
+  </si>
+  <si>
+    <t>15283552796</t>
   </si>
   <si>
     <t>192969299</t>
@@ -340,10 +343,10 @@
     <t>28919650670</t>
   </si>
   <si>
-    <t>250627</t>
-  </si>
-  <si>
-    <t>213574</t>
+    <t>250625</t>
+  </si>
+  <si>
+    <t>198574</t>
   </si>
   <si>
     <t>46942</t>
@@ -370,10 +373,10 @@
     <t>2433</t>
   </si>
   <si>
-    <t>41282</t>
-  </si>
-  <si>
-    <t>-8540</t>
+    <t>41291</t>
+  </si>
+  <si>
+    <t>-8538</t>
   </si>
   <si>
     <t>12422</t>
@@ -403,7 +406,7 @@
     <t>19.7</t>
   </si>
   <si>
-    <t>-3.8</t>
+    <t>-4.1</t>
   </si>
   <si>
     <t>36</t>
@@ -430,13 +433,13 @@
     <t>4323.6</t>
   </si>
   <si>
-    <t>3692256</t>
-  </si>
-  <si>
-    <t>794756</t>
-  </si>
-  <si>
-    <t>7305821</t>
+    <t>3692104</t>
+  </si>
+  <si>
+    <t>764752</t>
+  </si>
+  <si>
+    <t>7305810</t>
   </si>
   <si>
     <t>1837967</t>
@@ -445,10 +448,10 @@
     <t>312147</t>
   </si>
   <si>
-    <t>1741846</t>
-  </si>
-  <si>
-    <t>1466378</t>
+    <t>1741844</t>
+  </si>
+  <si>
+    <t>1466374</t>
   </si>
   <si>
     <t>20859</t>
@@ -463,7 +466,7 @@
     <t>1530</t>
   </si>
   <si>
-    <t>1718</t>
+    <t>1666</t>
   </si>
   <si>
     <t>605</t>
@@ -493,7 +496,7 @@
     <t>6343</t>
   </si>
   <si>
-    <t>7281</t>
+    <t>7169</t>
   </si>
   <si>
     <t>1238</t>
@@ -945,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -972,25 +975,25 @@
         <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1031,25 +1034,25 @@
         <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1087,28 +1090,28 @@
         <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1122,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1149,25 +1152,25 @@
         <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1181,7 +1184,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1205,28 +1208,28 @@
         <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1240,7 +1243,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1264,28 +1267,28 @@
         <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1299,7 +1302,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1323,28 +1326,28 @@
         <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1358,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1382,28 +1385,28 @@
         <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1417,7 +1420,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -1441,28 +1444,28 @@
         <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1500,28 +1503,28 @@
         <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
